--- a/Tabela/Cabo Frio/Cabo Frio-7.xlsx
+++ b/Tabela/Cabo Frio/Cabo Frio-7.xlsx
@@ -14,402 +14,402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="132">
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>na planta</t>
+    <t>em construção</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
+    <t>R$ 200.000</t>
+  </si>
+  <si>
+    <t>R$ 235.000</t>
+  </si>
+  <si>
+    <t>R$ 135.000</t>
+  </si>
+  <si>
+    <t>R$ 395.000</t>
+  </si>
+  <si>
+    <t>R$ 220.000</t>
+  </si>
+  <si>
+    <t>R$ 240.000</t>
+  </si>
+  <si>
     <t>destaque</t>
   </si>
   <si>
-    <t>R$ 300.000</t>
-  </si>
-  <si>
-    <t>R$ 200.000</t>
-  </si>
-  <si>
-    <t>R$ 189.999</t>
-  </si>
-  <si>
-    <t>R$ 130.000</t>
-  </si>
-  <si>
-    <t>R$ 170.000</t>
+    <t>R$ 195.000</t>
+  </si>
+  <si>
+    <t>R$ 215.000</t>
+  </si>
+  <si>
+    <t>R$ 250.000</t>
+  </si>
+  <si>
+    <t>R$ 230.000</t>
+  </si>
+  <si>
+    <t>R$ 190.000</t>
+  </si>
+  <si>
+    <t>R$ 927.784</t>
+  </si>
+  <si>
+    <t>R$ 480.000</t>
+  </si>
+  <si>
+    <t>R$ 440.000</t>
+  </si>
+  <si>
+    <t>R$ 99.000</t>
+  </si>
+  <si>
+    <t>Casa localizada em Unamar, segundo distrito de Cabo Frio .</t>
+  </si>
+  <si>
+    <t>Imobiliária Ideal oferece para venda :</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lago está aqui na IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>condomínioR$ 80 IPTU R$ 700</t>
+  </si>
+  <si>
+    <t>Excelente propriedade no Jardim Esperança próxima a diversos comércios. Nela contém 2 casas construídas, casa principal com 2 quartos, sendo 1 suíte, 1 banheiro social, área de ser...</t>
+  </si>
+  <si>
+    <t>Casa com 2 quartos, Piscina , Área Gourmet, Quadra de Esportes, sala, cozinha Americana, área de serviço, garagem para 6 carros, independente e de frente para a rua, laje, telhado...</t>
+  </si>
+  <si>
+    <t>R$ 265.000</t>
+  </si>
+  <si>
+    <t>CASA À VENDA</t>
+  </si>
+  <si>
+    <t>IPTU R$ 350</t>
+  </si>
+  <si>
+    <t>R$ 390.000</t>
+  </si>
+  <si>
+    <t>Leal Imóveis vende:</t>
+  </si>
+  <si>
+    <t>Excelente duplex moderna com 2 quartos, área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Casa com 2 dormitórios à venda, por R$ 230.000,00 - Unamar - Cabo Frio/RJ</t>
+  </si>
+  <si>
+    <t>Casa duplex nova independente frontal, posicionada para o nascer do sol, a 1 km da praia do Peró, próximo a farmácia, mercado, padaria, salão de beleza e restaurantes.</t>
+  </si>
+  <si>
+    <t>Realize o Sonho da casa Própria com Camila Oliveira Corretora de Imóveis da imobiliária confiança.</t>
+  </si>
+  <si>
+    <t>R$ 380.000</t>
   </si>
   <si>
     <t>R$ 105.000</t>
   </si>
   <si>
-    <t>R$ 190.000</t>
-  </si>
-  <si>
-    <t>R$ 380.000</t>
-  </si>
-  <si>
-    <t>R$ 538.000</t>
-  </si>
-  <si>
-    <t>R$ 325.000</t>
-  </si>
-  <si>
-    <t>R$ 250.000</t>
-  </si>
-  <si>
-    <t>R$ 245.000</t>
-  </si>
-  <si>
-    <t>R$ 770.003</t>
-  </si>
-  <si>
-    <t>R$ 730.000</t>
-  </si>
-  <si>
-    <t>R$ 76.000</t>
-  </si>
-  <si>
-    <t>R$ 80.000</t>
-  </si>
-  <si>
-    <t>Dúplex à Venda - Região Dos Lagos -Unamar- Cabo Frio/ RJ</t>
-  </si>
-  <si>
-    <t>R$ 95.000</t>
-  </si>
-  <si>
-    <t>A casa no bairro Unamar (Tamoios) com 200 metros quadrados com 2 quartos sendo 2 suites e 4 banheiros</t>
-  </si>
-  <si>
-    <t>Excelente casa 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>A casa no bairro Vista Alegre (Tamoios) possui 150 metros quadrados com 2 quartos e 1 banheiro, sala, cozinha americana.</t>
-  </si>
-  <si>
-    <t>Vende-se Linda Casa localizada no Condomínio Verão Vermelho !!🏠🏖️</t>
-  </si>
-  <si>
-    <t>FINANCIAMENTO DIRETO COM A CONSTRUTORA;</t>
-  </si>
-  <si>
-    <t>Casa com 2 dormitório à venda, 56 m² por R$ 105.000 - Unamar - Cabo Frio/RJ</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO: COD: CA0019</t>
-  </si>
-  <si>
-    <t>condomínio R$ 495 IPTU R$ 800</t>
-  </si>
-  <si>
-    <t>R$ 150.000</t>
-  </si>
-  <si>
-    <t>R$ 180.000</t>
-  </si>
-  <si>
-    <t>R$ 320.000</t>
-  </si>
-  <si>
-    <t>IPTU R$ 250</t>
-  </si>
-  <si>
-    <t>M.CARVALHO IMOVEIS VENDE</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO: CA0529</t>
-  </si>
-  <si>
-    <t>Localização Estratégica em Santa Lúcia.</t>
-  </si>
-  <si>
-    <t>condomínio R$ 694 IPTU R$ 1.488</t>
-  </si>
-  <si>
-    <t>Bela casa de 1 quarto em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Excelente casa de 2 quartos em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>IPTU R$ 100</t>
-  </si>
-  <si>
-    <t>Linda casa com 2 quartos sendo 1 suíte com área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Possui balcão externo espaçoso.</t>
+    <t>4 quartos na quadra do mar da Praia da Costa, 3 torres com vista para o mar da Praia da Costa, perto de tudo!</t>
+  </si>
+  <si>
+    <t>condomínioR$ 500 IPTU R$ 1.511</t>
+  </si>
+  <si>
+    <t>condomínioR$ 623</t>
+  </si>
+  <si>
+    <t>Lindíssima casa 2 quartos em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Casa duplex em condomínio.</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>mais</t>
   </si>
   <si>
-    <t>Composta por:</t>
-  </si>
-  <si>
-    <t>Descrição do imóvel:</t>
-  </si>
-  <si>
-    <t>Apartamento todo reformado em Cabo Frio a poucos metros da praia do Forte, na quadra da praia. Unidade composta com sala em dois ambientes, cozinha, área de serviço, banheiro socia...</t>
-  </si>
-  <si>
-    <t>IPTU R$ 420</t>
-  </si>
-  <si>
-    <t>Linda casa moderna de 2 quartos em Unamar - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 297 IPTU R$ 380</t>
-  </si>
-  <si>
-    <t>Ótima casa nas Palmeiras em um charmoso condomínio fechado. Vá à pé ao Shopping Park Lagos ou faça uma bela caminhada na Praia das Palmeiras tudo sem precisar tirar o carro da gara...</t>
-  </si>
-  <si>
-    <t>Sempre quis morar a poucos passos da Praia do Forte? Esta é a sua chance!!!</t>
-  </si>
-  <si>
-    <t>Venha morar na região dos lagos</t>
-  </si>
-  <si>
-    <t>Dúplex no Condomínio Long Beach composto por;</t>
-  </si>
-  <si>
-    <t>Vai lhe possibilitar aproveitar a vida a...</t>
+    <t>Excelente Duplex composto por:</t>
+  </si>
+  <si>
+    <t>A casa no bairro Unamar (Tamoios) possui 90 metros quadrados com 3 quartos sendo 1 suite e 2 banheiros . pertinho da rodovia.</t>
+  </si>
+  <si>
+    <t>condomínioR$ 427 IPTU R$ 60</t>
+  </si>
+  <si>
+    <t>Imóvel em Unamar – Cabo Frio/RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 415 IPTU R$ 30</t>
+  </si>
+  <si>
+    <t>Casa á venda em Unamar, 2° Distrito de Cabo Frio – RJ.</t>
+  </si>
+  <si>
+    <t>Ótimo apartamento, com 101m², muito bem localizado, próximo a Faculdade, Colégio, comércio do Centro e bem pertinho do Horti-fruti, Rodoviária e Supermercado Extra. Fácil acesso à...</t>
+  </si>
+  <si>
+    <t>Casa em condomínio fechado no Braga com: 2 Quartos sendo 1 Suíte- Sala- Cozinha- Banheiro Social- Área de Serviço- Varanda- 2 Vagas de Garagem coberta.</t>
+  </si>
+  <si>
+    <t>- Ótima Localização dentro do condomínio.</t>
+  </si>
+  <si>
+    <t>Excelente casa no condomínio Bouganville 3 .</t>
+  </si>
+  <si>
+    <t>Linda casa em Tamoios 2⁰ distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>No térreo é composta por, cozinha americana, sala, 1 banheiro social e área de serviço. 2 andar , 2 quartos sendo os dois suítes, 1 banheiro social e...</t>
+  </si>
+  <si>
+    <t>Composta por</t>
+  </si>
+  <si>
+    <t>Jardim Esperanca, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Rua das Pacas, Unamar</t>
+  </si>
+  <si>
+    <t>2 quartos</t>
+  </si>
+  <si>
+    <t>Casa 2 Quartos para Venda no bairro Unamar (Tamoios), localizado na cidade de Cabo Frio RJ.</t>
+  </si>
+  <si>
+    <t>obs: deixe seu contato para mais informações!</t>
+  </si>
+  <si>
+    <t>Apartamento (Térreo) 60m² a duas quadras da Praia do Forte, no melhor ponto próximo ao Hotel Malibu. A acomodação dispõe de 2 quartos, cozinha americana, área de serviço, banheiro,...</t>
+  </si>
+  <si>
+    <t>Cód: JMC-127</t>
+  </si>
+  <si>
+    <t>Excelente casa com área total do terreno de 250m² composta por 2 quartos sendo 1 suíte, sala, cozin...</t>
+  </si>
+  <si>
+    <t>Com...</t>
+  </si>
+  <si>
+    <t>CRECI/RJ: Creci RJ- 01 077.888</t>
+  </si>
+  <si>
+    <t>EXCELENTE OPORTUNIDADE !!!! MORE NO PARAÍSO- Ogiva , Bairro Nobre de Cabo Frio/RJ . Condomínio com excelente área de Lazer - Piscina - Sauna - Churrasqueira Coberta. Casa Duplex co...</t>
+  </si>
+  <si>
+    <t>Apartamentos de 4 quartos com até 4 suítes, a partir de 110m² a...</t>
+  </si>
+  <si>
+    <t>Condomínio com Piscina- S...</t>
   </si>
   <si>
     <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
   </si>
   <si>
-    <t>Rodovia Amaral Peixoto, Vista Alegre Tamoios</t>
-  </si>
-  <si>
-    <t>➡️2 Quartos, sendo 1 suíte</t>
-  </si>
-  <si>
-    <t>ENTRADA+PARCELAS</t>
-  </si>
-  <si>
-    <t>Excelente casa com 2 quarto, sala, cozinha americana, banheiro social,</t>
-  </si>
-  <si>
-    <t>IMOBILIÁRIA MAGDALA FURTADO VENDE:</t>
-  </si>
-  <si>
-    <t>Vendo uma casa na praia na avenida beira mar em tamoios Cabo Frio, ótima localização entre a rodovia Amaral Peixoto e a praia, pertinho de tudo, hospital, creche, escolas, mercados...</t>
-  </si>
-  <si>
-    <t>Casa em condomínio no Parque Riviera com dois pavimentos.</t>
-  </si>
-  <si>
-    <t>SUA OPORTUNIDADE CHEGOU. CASA MARAVILHOSA, BEM LOCALIZADA EM AREA NOBRE, PERTINHO DA PRAIA DO CORAL ,COM COMERCIO PERTINHO, UNAPARK SHOPPING, ESCOLA...</t>
-  </si>
-  <si>
-    <t>Salão Multiuso</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com A.J. Sant?anna Corretor de Imóveis</t>
-  </si>
-  <si>
-    <t>Ótima Oportunidade pra adquirir seu imóvel.</t>
-  </si>
-  <si>
-    <t>2 Quartos (sendo 1 suíte com varanda)</t>
-  </si>
-  <si>
-    <t>PROMOÇÃO! R$95.000,00</t>
-  </si>
-  <si>
-    <t>CR...</t>
+    <t>- Todo Comércio próximo ao imóvel.</t>
+  </si>
+  <si>
+    <t>Primeira locação composta por, sala, 2 quartos sendo um suite, banheiro social, cozi...</t>
+  </si>
+  <si>
+    <t>300 m²</t>
+  </si>
+  <si>
+    <t>100 m²</t>
+  </si>
+  <si>
+    <t>3 banheiros</t>
+  </si>
+  <si>
+    <t>Código: CR0010</t>
+  </si>
+  <si>
+    <t>OBS: FINANCIAMENTO DIRETO COM O CONSTRUTOR / NÃO ACEITAMOS FINANCIAMENTO BANCÁRIO, CARTA DE CRÉDITO NEM FGTS.</t>
+  </si>
+  <si>
+    <t>Rua José Antônio Sampaio, Centro</t>
+  </si>
+  <si>
+    <t>CRECI/RJ: 075.292</t>
+  </si>
+  <si>
+    <t>- Casa próxima a praia.</t>
+  </si>
+  <si>
+    <t>- 2 Quartos, Sala, Cozinha Americana...</t>
+  </si>
+  <si>
+    <t>Rua do Guriri, Peró</t>
+  </si>
+  <si>
+    <t>2 quartos (sendo um suíte)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Sala em 2 ambientes</t>
+  </si>
+  <si>
+    <t>Linda casa estilo moderna com 2 quartos, piscina, gourmet em...</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Unamar</t>
+  </si>
+  <si>
+    <t>Avenida Francisco Mendes, Centro</t>
+  </si>
+  <si>
+    <t>Casa composta por 2 quartos sendo 1 suíte, 1 sala, 1 cozinha, 1 banheiro social, área de serviço cob...</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica Mar...</t>
+  </si>
+  <si>
+    <t>Nova California Tamoios, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Travessa Cajarana, Cajueiro</t>
+  </si>
+  <si>
+    <t>Contato : WhatsApp</t>
+  </si>
+  <si>
+    <t>Avenida Marimbas, Ogiva</t>
+  </si>
+  <si>
+    <t>Avenida Antônio Gil Veloso, Praia da Costa</t>
+  </si>
+  <si>
+    <t>101 m²</t>
+  </si>
+  <si>
+    <t>Braga, Cabo Frio</t>
+  </si>
+  <si>
+    <t>- Ca...</t>
+  </si>
+  <si>
+    <t>110 m²</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Sacada</t>
+  </si>
+  <si>
+    <t>90 m²</t>
+  </si>
+  <si>
+    <t>60 m²</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>120 m²</t>
+  </si>
+  <si>
+    <t>73 m²</t>
+  </si>
+  <si>
+    <t>V...</t>
+  </si>
+  <si>
+    <t>110 - 394 m²</t>
+  </si>
+  <si>
+    <t>Cód...</t>
+  </si>
+  <si>
+    <t>Rua das Pacas, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>Cozinha americana</t>
+  </si>
+  <si>
+    <t>Área de Serviço</t>
+  </si>
+  <si>
+    <t>Sambura Tamoios, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Atenção i...</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Unamar, Cabo Frio</t>
+  </si>
+  <si>
+    <t>3 Banheiro...</t>
+  </si>
+  <si>
+    <t>Garagem p/ 2 carros</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>130 m²</t>
+  </si>
+  <si>
+    <t>108 m²</t>
+  </si>
+  <si>
+    <t>2 - 4</t>
+  </si>
+  <si>
+    <t>Área Gourmet com Piscina</t>
+  </si>
+  <si>
+    <t>59 m²</t>
+  </si>
+  <si>
+    <t>65 m²</t>
+  </si>
+  <si>
+    <t>Fino acabament...</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Rua Orlando Bragança, Unamar</t>
   </si>
   <si>
     <t>150 m²</t>
-  </si>
-  <si>
-    <t>➡️banheiro Social</t>
-  </si>
-  <si>
-    <t>ár...</t>
-  </si>
-  <si>
-    <t>Vila Nova, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com a Jéssica Marques Corretora de Imóveis</t>
-  </si>
-  <si>
-    <t>Palmeiras, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Brinquedoteca</t>
-  </si>
-  <si>
-    <t>Apartamento charmoso, muito confortável, bem arejado e à 100m da praia. Ao entrar no imóvel se de...</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 01 074.516</t>
-  </si>
-  <si>
-    <t>composta por 2 quartos, sala , cozinha americana, banheiro social, área de serviço, quintal com pi...</t>
-  </si>
-  <si>
-    <t>Sala Ampla</t>
-  </si>
-  <si>
-    <t>Avenida Independência, Unamar</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>➡️ Sala ampla</t>
-  </si>
-  <si>
-    <t>ÚLTIMAS UNIDADES, ENTRE EM COM NOSSA EQUIPE E RESERVE JÁ A SUA.</t>
-  </si>
-  <si>
-    <t>Casa com 3 quartos, sendo 2 suítes, hidromassagem, sala, cozinha americana, banheiro social quintal...</t>
-  </si>
-  <si>
-    <t>78 m²</t>
-  </si>
-  <si>
-    <t>Avenida Beira-mar, Aquariús</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 075.292</t>
-  </si>
-  <si>
-    <t>1º: sala em 2 ambientes, cozinha com armários, área de serviço coberta com banheiro e quarto de empregada.</t>
-  </si>
-  <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>Avenida Independência, Aquariús</t>
-  </si>
-  <si>
-    <t>Espaço Fitness</t>
-  </si>
-  <si>
-    <t>Cozinha Amer...</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com a Jéssica Marque...</t>
-  </si>
-  <si>
-    <t>200 m²</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>➡️ Cozinha americana</t>
-  </si>
-  <si>
-    <t>60 m²</t>
-  </si>
-  <si>
-    <t>130 m²</t>
-  </si>
-  <si>
-    <t>Casa com 2 quartos, sendo 1 suíte, sala, 1 banheiro social, cozinha, área de serviço, varanda, quinta...</t>
-  </si>
-  <si>
-    <t>Sauna com Sala de Repouso</t>
-  </si>
-  <si>
-    <t>Praia do Forte, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Para informaç...</t>
-  </si>
-  <si>
-    <t>Para in...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Casa com área gourmet, 2 quartos, sal...</t>
-  </si>
-  <si>
-    <t>56 m²</t>
-  </si>
-  <si>
-    <t>71 m²</t>
-  </si>
-  <si>
-    <t>Unamar, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Cód: JMC-11...</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Quadra Recreativa Descoberta</t>
-  </si>
-  <si>
-    <t>97 m²</t>
-  </si>
-  <si>
-    <t>Rua Dez, Unamar</t>
-  </si>
-  <si>
-    <t>190 m²</t>
-  </si>
-  <si>
-    <t>Churrasqueira</t>
-  </si>
-  <si>
-    <t>90 m²</t>
-  </si>
-  <si>
-    <t>132 m²</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Rua Vênus, Verao Vermelho Tamoios</t>
-  </si>
-  <si>
-    <t>Rua Jornalista Pedro Cordeiro de Melo, Vila Blanche</t>
-  </si>
-  <si>
-    <t>300 m²</t>
-  </si>
-  <si>
-    <t>Pi...</t>
-  </si>
-  <si>
-    <t>50 m²</t>
-  </si>
-  <si>
-    <t>58 m²</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>99 m²</t>
-  </si>
-  <si>
-    <t>669 m²</t>
-  </si>
-  <si>
-    <t>Avenida Rio Branco, Santa Lúcia</t>
-  </si>
-  <si>
-    <t>99 - 210 m²</t>
-  </si>
-  <si>
-    <t>2 - 3</t>
   </si>
 </sst>
 </file>
@@ -767,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -825,8 +825,11 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -837,49 +840,31 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" t="s">
-        <v>129</v>
-      </c>
-      <c r="P2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>111</v>
-      </c>
-      <c r="R2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -890,37 +875,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
       </c>
       <c r="H3" t="s">
         <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -931,37 +913,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
       </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
       </c>
       <c r="J4" t="s">
         <v>103</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -972,40 +954,40 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1016,40 +998,40 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
         <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>129</v>
+      </c>
+      <c r="O6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1063,37 +1045,31 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1101,40 +1077,37 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1142,37 +1115,37 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1180,37 +1153,52 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>87</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1221,28 +1209,28 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1253,46 +1241,28 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" t="s">
-        <v>120</v>
-      </c>
-      <c r="M12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1303,37 +1273,55 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>58</v>
       </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="P13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>131</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1341,40 +1329,37 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
       </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>84</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1382,37 +1367,37 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1420,34 +1405,34 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" t="s">
-        <v>126</v>
-      </c>
-      <c r="N16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1458,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -1466,23 +1451,29 @@
       <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>122</v>
+      </c>
+      <c r="L17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1493,34 +1484,34 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
       <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
         <v>87</v>
       </c>
-      <c r="I18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" t="s">
-        <v>82</v>
-      </c>
       <c r="K18" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>84</v>
+      </c>
+      <c r="M18" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1531,40 +1522,31 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
-        <v>48</v>
+      <c r="F19" t="s">
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="I19" t="s">
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" t="s">
-        <v>127</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" t="s">
-        <v>82</v>
-      </c>
-      <c r="P19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1575,40 +1557,31 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>106</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" t="s">
-        <v>128</v>
-      </c>
-      <c r="N20" t="s">
-        <v>82</v>
-      </c>
-      <c r="O20" t="s">
-        <v>96</v>
-      </c>
-      <c r="P20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1619,31 +1592,37 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="L21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1654,31 +1633,34 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J22" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1689,34 +1671,37 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="F23" t="s">
-        <v>60</v>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="L23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M23" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="N23" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="O23" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
